--- a/Graphs/Medication Timing Estimated Graphs.xlsx
+++ b/Graphs/Medication Timing Estimated Graphs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Estimated Plot</t>
   </si>
@@ -20,15 +20,6 @@
   </si>
   <si>
     <t>Mean Plasma Concentration, ng/mL</t>
-  </si>
-  <si>
-    <t>Initial Phase</t>
-  </si>
-  <si>
-    <t>Peak Phase</t>
-  </si>
-  <si>
-    <t>Decline Phase</t>
   </si>
 </sst>
 </file>
@@ -110,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -125,9 +116,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -162,7 +150,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Mean Plasma Concentration Over Time During Initial Phase</a:t>
+              <a:t>Estimated Mean Plasma Concentration Over Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -179,7 +167,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
+              <c:f>Sheet1!$B$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -210,18 +198,18 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$31</c:f>
+              <c:f>Sheet1!$B$3:$B$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -234,11 +222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2016208008"/>
-        <c:axId val="151439582"/>
+        <c:axId val="1758869096"/>
+        <c:axId val="2136639775"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2016208008"/>
+        <c:axId val="1758869096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,10 +301,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151439582"/>
+        <c:crossAx val="2136639775"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151439582"/>
+        <c:axId val="2136639775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,831 +379,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2016208008"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Estimated Mean Plasma Concentration Over Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1347134502"/>
-        <c:axId val="468992927"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1347134502"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Time, h</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="468992927"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="468992927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Mean Plasma Concentration, ng/mL</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1347134502"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Mean Plasma Concentration Over Time During Peak Phase</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$45</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:name/>
-            <c:spPr>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$46:$A$52</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$46:$B$52</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1604940447"/>
-        <c:axId val="91792407"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1604940447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Time, h</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91792407"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="91792407"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Mean Plasma Concentration, ng/mL</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1604940447"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Mean Plasma Concentration Over Time During Decline Phase</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$63</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:name/>
-            <c:spPr>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$64:$A$73</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$64:$B$73</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="760233338"/>
-        <c:axId val="2065039112"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="760233338"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Time, h</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2065039112"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2065039112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Mean Plasma Concentration, ng/mL</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="760233338"/>
+        <c:crossAx val="1758869096"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1247,10 +411,10 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6115050" cy="3533775"/>
+    <xdr:ext cx="6115050" cy="3771900"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
@@ -1263,81 +427,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6115050" cy="3771900"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6115050" cy="3257550"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6115050" cy="3371850"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1736,318 +825,220 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1.5</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B29" s="4">
-        <v>7.0</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="2"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="B46" s="4">
-        <v>10.5</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B47" s="4">
-        <v>10.5</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="B48" s="4">
-        <v>11.5</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B49" s="4">
-        <v>13.5</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="B50" s="4">
-        <v>13.0</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B51" s="4">
-        <v>13.0</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B52" s="4">
-        <v>14.0</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="2"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B64" s="4">
-        <v>12.0</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="B65" s="4">
-        <v>11.0</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="B66" s="4">
-        <v>9.5</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="B67" s="4">
-        <v>7.5</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="B68" s="4">
-        <v>6.5</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="B69" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="B70" s="4">
-        <v>4.0</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71">
-      <c r="A71" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="B71" s="4">
-        <v>3.0</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72">
-      <c r="A72" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="B72" s="4">
-        <v>2.0</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73">
-      <c r="A73" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1.0</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79">
       <c r="A79" s="5"/>
@@ -5513,240 +4504,9 @@
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
     </row>
-    <row r="945">
-      <c r="A945" s="5"/>
-      <c r="B945" s="5"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="5"/>
-      <c r="B946" s="5"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="5"/>
-      <c r="B947" s="5"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="5"/>
-      <c r="B948" s="5"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="5"/>
-      <c r="B949" s="5"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="5"/>
-      <c r="B950" s="5"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="5"/>
-      <c r="B951" s="5"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="5"/>
-      <c r="B952" s="5"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="5"/>
-      <c r="B953" s="5"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="5"/>
-      <c r="B954" s="5"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="5"/>
-      <c r="B955" s="5"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="5"/>
-      <c r="B956" s="5"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="5"/>
-      <c r="B957" s="5"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="5"/>
-      <c r="B958" s="5"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="5"/>
-      <c r="B959" s="5"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="5"/>
-      <c r="B960" s="5"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="5"/>
-      <c r="B961" s="5"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="5"/>
-      <c r="B962" s="5"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="5"/>
-      <c r="B963" s="5"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="5"/>
-      <c r="B964" s="5"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="5"/>
-      <c r="B965" s="5"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="5"/>
-      <c r="B966" s="5"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="5"/>
-      <c r="B967" s="5"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="5"/>
-      <c r="B968" s="5"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="5"/>
-      <c r="B969" s="5"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="5"/>
-      <c r="B970" s="5"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="5"/>
-      <c r="B971" s="5"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="5"/>
-      <c r="B972" s="5"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="5"/>
-      <c r="B973" s="5"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="5"/>
-      <c r="B974" s="5"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="5"/>
-      <c r="B975" s="5"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="5"/>
-      <c r="B976" s="5"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="5"/>
-      <c r="B977" s="5"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="5"/>
-      <c r="B978" s="5"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="5"/>
-      <c r="B979" s="5"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="5"/>
-      <c r="B980" s="5"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="5"/>
-      <c r="B981" s="5"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="5"/>
-      <c r="B982" s="5"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="5"/>
-      <c r="B983" s="5"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="5"/>
-      <c r="B984" s="5"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="5"/>
-      <c r="B985" s="5"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="5"/>
-      <c r="B986" s="5"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="5"/>
-      <c r="B987" s="5"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="5"/>
-      <c r="B988" s="5"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="5"/>
-      <c r="B989" s="5"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="5"/>
-      <c r="B990" s="5"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="5"/>
-      <c r="B991" s="5"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="5"/>
-      <c r="B992" s="5"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="5"/>
-      <c r="B993" s="5"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="5"/>
-      <c r="B994" s="5"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="5"/>
-      <c r="B995" s="5"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="5"/>
-      <c r="B996" s="5"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="5"/>
-      <c r="B997" s="5"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="5"/>
-      <c r="B998" s="5"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="5"/>
-      <c r="B999" s="5"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="5"/>
-      <c r="B1000" s="5"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="5"/>
-      <c r="B1001" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
